--- a/Data Test/signin.xlsx
+++ b/Data Test/signin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\CAPSTONE PROJECT\testing-lms\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D184F4B-6CFF-42F9-B4A3-C94012DC44A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5BA5B7-0EBA-4411-9405-CB94541D83EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>email</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>archenie@gmail.com</t>
+  </si>
+  <si>
+    <t>sal@gmail.com</t>
+  </si>
+  <si>
+    <t>Salsa123!</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,10 +569,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Data Test/signin.xlsx
+++ b/Data Test/signin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\CAPSTONE PROJECT\testing-lms\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5BA5B7-0EBA-4411-9405-CB94541D83EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E819041-F6B4-41CC-A503-EB213161DD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
+    <workbookView xWindow="1890" yWindow="1245" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,10 +83,10 @@
     <t>archenie@gmail.com</t>
   </si>
   <si>
-    <t>sal@gmail.com</t>
-  </si>
-  <si>
-    <t>Salsa123!</t>
+    <t>joong@gmail.com</t>
+  </si>
+  <si>
+    <t>Joong123!</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Test/signin.xlsx
+++ b/Data Test/signin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\CAPSTONE PROJECT\testing-lms\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E819041-F6B4-41CC-A503-EB213161DD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F1B5AE-40DC-4E40-B8FA-6683EBB23865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1245" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
+    <workbookView xWindow="2100" yWindow="1860" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>email</t>
   </si>
@@ -44,9 +44,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>arch-gmail</t>
-  </si>
-  <si>
     <t>Archen123!</t>
   </si>
   <si>
@@ -68,25 +65,25 @@
     <t>TC005</t>
   </si>
   <si>
-    <t>archen@gmail.com</t>
-  </si>
-  <si>
     <t>TC001</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>pwarchen</t>
-  </si>
-  <si>
-    <t>archenie@gmail.com</t>
-  </si>
-  <si>
     <t>joong@gmail.com</t>
   </si>
   <si>
     <t>Joong123!</t>
+  </si>
+  <si>
+    <t>Joong13!</t>
+  </si>
+  <si>
+    <t>joong</t>
+  </si>
+  <si>
+    <t>joongarch@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -484,20 +481,20 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -511,51 +508,51 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
@@ -563,24 +560,24 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{DB699769-90B2-4092-BF89-77910214CBA5}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{2364844D-C789-4CAB-91ED-109E387A62E7}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{7EFD32CE-1A0F-4045-B826-F244723633B5}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{7EFD32CE-1A0F-4045-B826-F244723633B5}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{D87254E4-40F7-4E3C-94B5-42D9714AEADE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
